--- a/docs/專題簡報國小甲組決賽名冊.xlsx
+++ b/docs/專題簡報國小甲組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="276">
   <si>
     <t>序</t>
   </si>
@@ -51,490 +51,802 @@
     <t>大甲區大甲國小</t>
   </si>
   <si>
-    <t>吳嘉娸</t>
-  </si>
-  <si>
-    <t>李依玲</t>
+    <t>蔡君綺</t>
+  </si>
+  <si>
+    <t>陳偲貝</t>
   </si>
   <si>
     <t>徐敏議</t>
   </si>
   <si>
-    <t>p65k4</t>
-  </si>
-  <si>
-    <t>yg70nc3</t>
-  </si>
-  <si>
-    <t>大甲區文昌國小</t>
-  </si>
-  <si>
-    <t>易庭安</t>
-  </si>
-  <si>
-    <t>邱冠璇</t>
-  </si>
-  <si>
-    <t>施伯嶽</t>
-  </si>
-  <si>
-    <t>kfr61n8</t>
-  </si>
-  <si>
-    <t>smy80f3</t>
-  </si>
-  <si>
-    <t>大里區永隆國小</t>
-  </si>
-  <si>
-    <t>張詠青</t>
-  </si>
-  <si>
-    <t>何思嫻</t>
-  </si>
-  <si>
-    <t>張安邦</t>
-  </si>
-  <si>
-    <t>x95et7</t>
-  </si>
-  <si>
-    <t>et41m1</t>
+    <t>tv43s3</t>
+  </si>
+  <si>
+    <t>fr93nc3</t>
+  </si>
+  <si>
+    <t>大肚區大肚國小</t>
+  </si>
+  <si>
+    <t>張銘宸</t>
+  </si>
+  <si>
+    <t>林冠廷</t>
+  </si>
+  <si>
+    <t>陳宗鉉</t>
+  </si>
+  <si>
+    <t>xb95tv6</t>
+  </si>
+  <si>
+    <t>dx85sm7</t>
+  </si>
+  <si>
+    <t>大肚區瑞峰國小</t>
+  </si>
+  <si>
+    <t>楊豐駿</t>
+  </si>
+  <si>
+    <t>何思嫺</t>
+  </si>
+  <si>
+    <t>莊啟宗</t>
+  </si>
+  <si>
+    <t>my14e7</t>
+  </si>
+  <si>
+    <t>anc81n3</t>
+  </si>
+  <si>
+    <t>大里區立新國小</t>
+  </si>
+  <si>
+    <t>陳宥蓁</t>
+  </si>
+  <si>
+    <t>劉子賢</t>
+  </si>
+  <si>
+    <t>李淑娟</t>
+  </si>
+  <si>
+    <t>b86f5</t>
+  </si>
+  <si>
+    <t>nc39fr2</t>
+  </si>
+  <si>
+    <t>江沄蓁</t>
+  </si>
+  <si>
+    <t>賴崇祐</t>
+  </si>
+  <si>
+    <t>v22k3</t>
+  </si>
+  <si>
+    <t>whp36g7</t>
   </si>
   <si>
     <t>大里區瑞城國小</t>
   </si>
   <si>
-    <t>陳妍璇</t>
-  </si>
-  <si>
-    <t>林岱昕</t>
+    <t>張育綸</t>
+  </si>
+  <si>
+    <t>陳柏爾</t>
   </si>
   <si>
     <t>廖豐欽</t>
   </si>
   <si>
-    <t>fr51sm9</t>
-  </si>
-  <si>
-    <t>gw92m6</t>
+    <t>tv13pe4</t>
+  </si>
+  <si>
+    <t>rs13cd5</t>
+  </si>
+  <si>
+    <t>大雅區大明國小</t>
+  </si>
+  <si>
+    <t>張欣璦</t>
+  </si>
+  <si>
+    <t>羅芷姸</t>
+  </si>
+  <si>
+    <t>周熙平</t>
+  </si>
+  <si>
+    <t>pet38fr5</t>
+  </si>
+  <si>
+    <t>rsm25fr6</t>
+  </si>
+  <si>
+    <t>中區光復國小</t>
+  </si>
+  <si>
+    <t>王華漾</t>
+  </si>
+  <si>
+    <t>張丞儀</t>
+  </si>
+  <si>
+    <t>林靜鶯</t>
+  </si>
+  <si>
+    <t>jk86jk2</t>
+  </si>
+  <si>
+    <t>rs37cd8</t>
   </si>
   <si>
     <t>北屯區仁美國小</t>
   </si>
   <si>
-    <t>盧品翰</t>
-  </si>
-  <si>
     <t>王淮宇</t>
   </si>
   <si>
+    <t>曾執</t>
+  </si>
+  <si>
     <t>許雅惠</t>
   </si>
   <si>
-    <t>y19an6</t>
-  </si>
-  <si>
-    <t>bj6pe5</t>
-  </si>
-  <si>
-    <t>北屯區文心國小</t>
-  </si>
-  <si>
-    <t>高顥禎</t>
-  </si>
-  <si>
-    <t>趙若妤</t>
-  </si>
-  <si>
-    <t>簡綉紋</t>
-  </si>
-  <si>
-    <t>et78et3</t>
-  </si>
-  <si>
-    <t>tv5c8</t>
-  </si>
-  <si>
-    <t>陳孟軒</t>
-  </si>
-  <si>
-    <t>簡楷倫</t>
-  </si>
-  <si>
-    <t>黃中興</t>
-  </si>
-  <si>
-    <t>hp1n1</t>
-  </si>
-  <si>
-    <t>g33fr9</t>
+    <t>f7dx7</t>
+  </si>
+  <si>
+    <t>x30b5</t>
+  </si>
+  <si>
+    <t>陳育安</t>
+  </si>
+  <si>
+    <t>陳宇彤</t>
+  </si>
+  <si>
+    <t>黃瓊瑩</t>
+  </si>
+  <si>
+    <t>g74fr6</t>
+  </si>
+  <si>
+    <t>pe34k5</t>
   </si>
   <si>
     <t>北屯區文昌國小</t>
   </si>
   <si>
-    <t>李宛錡</t>
+    <t>唐予恩</t>
   </si>
   <si>
     <t>晋鳳山</t>
   </si>
   <si>
-    <t>hpe58x5</t>
-  </si>
-  <si>
-    <t>bj44gw1</t>
-  </si>
-  <si>
-    <t>北屯區軍功國小</t>
-  </si>
-  <si>
-    <t>謝佳均</t>
-  </si>
-  <si>
-    <t>趙淑芬</t>
-  </si>
-  <si>
-    <t>e87x9</t>
-  </si>
-  <si>
-    <t>x6j6</t>
-  </si>
-  <si>
-    <t>北區賴厝國小</t>
-  </si>
-  <si>
-    <t>陳定緯</t>
-  </si>
-  <si>
-    <t>劉鈞坪</t>
-  </si>
-  <si>
-    <t>張麗雪</t>
-  </si>
-  <si>
-    <t>sm55nc7</t>
-  </si>
-  <si>
-    <t>smy35cd3</t>
+    <t>cdx99e8</t>
+  </si>
+  <si>
+    <t>sm95fr3</t>
+  </si>
+  <si>
+    <t>北屯區東光國小</t>
+  </si>
+  <si>
+    <t>闕悅</t>
+  </si>
+  <si>
+    <t>林品妤</t>
+  </si>
+  <si>
+    <t>陳昭文</t>
+  </si>
+  <si>
+    <t>f43yg3</t>
+  </si>
+  <si>
+    <t>ygw62my6</t>
+  </si>
+  <si>
+    <t>北屯區松竹國小</t>
+  </si>
+  <si>
+    <t>陳俐綺</t>
+  </si>
+  <si>
+    <t>劉采昕</t>
+  </si>
+  <si>
+    <t>童巧雯</t>
+  </si>
+  <si>
+    <t>tv67g3</t>
+  </si>
+  <si>
+    <t>pet85sm3</t>
+  </si>
+  <si>
+    <t>范安芯</t>
+  </si>
+  <si>
+    <t>鍾昕妤</t>
+  </si>
+  <si>
+    <t>xbj11et7</t>
+  </si>
+  <si>
+    <t>gwh69wh7</t>
+  </si>
+  <si>
+    <t>北屯區新興國小</t>
+  </si>
+  <si>
+    <t>廖薇姍</t>
+  </si>
+  <si>
+    <t>張忻嬡</t>
+  </si>
+  <si>
+    <t>張瑞堅</t>
+  </si>
+  <si>
+    <t>dx82hp1</t>
+  </si>
+  <si>
+    <t>xbj23kf5</t>
+  </si>
+  <si>
+    <t>陳亮瑜</t>
+  </si>
+  <si>
+    <t>劉羿君</t>
+  </si>
+  <si>
+    <t>my94c2</t>
+  </si>
+  <si>
+    <t>cd45pe8</t>
+  </si>
+  <si>
+    <t>北區中華國小</t>
+  </si>
+  <si>
+    <t>顧筱瑄</t>
+  </si>
+  <si>
+    <t>顧智瑋</t>
+  </si>
+  <si>
+    <t>ygw1cd7</t>
+  </si>
+  <si>
+    <t>whp44kf1</t>
+  </si>
+  <si>
+    <t>北區立人國小</t>
+  </si>
+  <si>
+    <t>張芊珊</t>
+  </si>
+  <si>
+    <t>呂欣芸</t>
+  </si>
+  <si>
+    <t>myg71my6</t>
+  </si>
+  <si>
+    <t>whp63v6</t>
+  </si>
+  <si>
+    <t>北區育仁小學</t>
+  </si>
+  <si>
+    <t>何家妍</t>
+  </si>
+  <si>
+    <t>伍芯妤</t>
+  </si>
+  <si>
+    <t>盧書錦</t>
+  </si>
+  <si>
+    <t>xb96p6</t>
+  </si>
+  <si>
+    <t>p52hp8</t>
+  </si>
+  <si>
+    <t>陳品妤</t>
+  </si>
+  <si>
+    <t>魏晨亘</t>
+  </si>
+  <si>
+    <t>v10w9</t>
+  </si>
+  <si>
+    <t>whp42bj5</t>
+  </si>
+  <si>
+    <t>北區篤行國小</t>
+  </si>
+  <si>
+    <t>謝竣斐</t>
+  </si>
+  <si>
+    <t>吳映璇</t>
+  </si>
+  <si>
+    <t>呂健聰</t>
+  </si>
+  <si>
+    <t>yg29w5</t>
+  </si>
+  <si>
+    <t>b64pe1</t>
+  </si>
+  <si>
+    <t>外埔區外埔國小</t>
+  </si>
+  <si>
+    <t>謝芊右</t>
+  </si>
+  <si>
+    <t>陳文鴻</t>
+  </si>
+  <si>
+    <t>cdx36j2</t>
+  </si>
+  <si>
+    <t>v83an7</t>
+  </si>
+  <si>
+    <t>鄭珮濡</t>
+  </si>
+  <si>
+    <t>陳雅玲</t>
+  </si>
+  <si>
+    <t>yg75v6</t>
+  </si>
+  <si>
+    <t>v60r4</t>
+  </si>
+  <si>
+    <t>后里區后里國小</t>
+  </si>
+  <si>
+    <t>賴玟伶</t>
+  </si>
+  <si>
+    <t>劉昀欣</t>
+  </si>
+  <si>
+    <t>余鴻斌</t>
+  </si>
+  <si>
+    <t>n75t5</t>
+  </si>
+  <si>
+    <t>yg33f8</t>
+  </si>
+  <si>
+    <t>西屯區上石國小</t>
+  </si>
+  <si>
+    <t>林芠羽</t>
+  </si>
+  <si>
+    <t>朱佑禾</t>
+  </si>
+  <si>
+    <t>周百瑩</t>
+  </si>
+  <si>
+    <t>sm96b8</t>
+  </si>
+  <si>
+    <t>cd35k7</t>
   </si>
   <si>
     <t>西屯區上安國小</t>
   </si>
   <si>
-    <t>許智程</t>
-  </si>
-  <si>
-    <t>戴稚宸</t>
+    <t>呂奕潓</t>
+  </si>
+  <si>
+    <t>張琇媛</t>
   </si>
   <si>
     <t>陳美君</t>
   </si>
   <si>
-    <t>r54h5</t>
-  </si>
-  <si>
-    <t>bj67my7</t>
+    <t>k8p6</t>
+  </si>
+  <si>
+    <t>yg23v7</t>
+  </si>
+  <si>
+    <t>蔣沁凌</t>
+  </si>
+  <si>
+    <t>林芝羽</t>
+  </si>
+  <si>
+    <t>t77sm8</t>
+  </si>
+  <si>
+    <t>jk46j8</t>
   </si>
   <si>
     <t>西屯區長安國小</t>
   </si>
   <si>
-    <t>陳昱慈</t>
-  </si>
-  <si>
-    <t>李婕禕</t>
-  </si>
-  <si>
-    <t>王文君</t>
-  </si>
-  <si>
-    <t>k35e3</t>
-  </si>
-  <si>
-    <t>w35dx1</t>
-  </si>
-  <si>
-    <t>江雨檠</t>
-  </si>
-  <si>
-    <t>張筠蕾</t>
-  </si>
-  <si>
-    <t>rsm47h8</t>
-  </si>
-  <si>
-    <t>f79v5</t>
-  </si>
-  <si>
-    <t>西屯區國安國小</t>
-  </si>
-  <si>
-    <t>陳重威</t>
-  </si>
-  <si>
-    <t>陳力愷</t>
-  </si>
-  <si>
-    <t>宋志偉</t>
-  </si>
-  <si>
-    <t>n17g7</t>
-  </si>
-  <si>
-    <t>wh92pe7</t>
-  </si>
-  <si>
-    <t>西屯區惠來國小</t>
-  </si>
-  <si>
-    <t>黃詩琪</t>
-  </si>
-  <si>
-    <t>劉沛軒</t>
-  </si>
-  <si>
-    <t>陳彥穎</t>
-  </si>
-  <si>
-    <t>c42sm5</t>
-  </si>
-  <si>
-    <t>yg68j7</t>
+    <t>林晏靖</t>
+  </si>
+  <si>
+    <t>林揚勝</t>
+  </si>
+  <si>
+    <t>林為光</t>
+  </si>
+  <si>
+    <t>f10dx6</t>
+  </si>
+  <si>
+    <t>d25c4</t>
+  </si>
+  <si>
+    <t>沙鹿區竹林國小</t>
+  </si>
+  <si>
+    <t>廖睿恩</t>
+  </si>
+  <si>
+    <t>陳佩琪</t>
+  </si>
+  <si>
+    <t>陳杰峰</t>
+  </si>
+  <si>
+    <t>ncd78fr6</t>
+  </si>
+  <si>
+    <t>xbj66yg8</t>
+  </si>
+  <si>
+    <t>王宥鈞</t>
+  </si>
+  <si>
+    <t>陳佩吟</t>
+  </si>
+  <si>
+    <t>cd13r7</t>
+  </si>
+  <si>
+    <t>dx99fr7</t>
   </si>
   <si>
     <t>沙鹿區沙鹿國小</t>
   </si>
   <si>
-    <t>陳品妏</t>
-  </si>
-  <si>
-    <t>蔡硯筑</t>
+    <t>王郁雯</t>
+  </si>
+  <si>
+    <t>林雪媖</t>
   </si>
   <si>
     <t>陳桂芳</t>
   </si>
   <si>
-    <t>dx21k4</t>
-  </si>
-  <si>
-    <t>yg95cd3</t>
-  </si>
-  <si>
-    <t>林雪媖</t>
-  </si>
-  <si>
-    <t>王郁雯</t>
-  </si>
-  <si>
-    <t>xb91et5</t>
-  </si>
-  <si>
-    <t>v68e8</t>
-  </si>
-  <si>
-    <t>東勢區東勢國小</t>
-  </si>
-  <si>
-    <t>黃羽曼</t>
-  </si>
-  <si>
-    <t>巫昀臻</t>
-  </si>
-  <si>
-    <t>張雅雪</t>
-  </si>
-  <si>
-    <t>my17bj2</t>
-  </si>
-  <si>
-    <t>bjk21n4</t>
+    <t>c86et8</t>
+  </si>
+  <si>
+    <t>t34g1</t>
+  </si>
+  <si>
+    <t>東區力行國小</t>
+  </si>
+  <si>
+    <t>鄭采林</t>
+  </si>
+  <si>
+    <t>林景盛</t>
+  </si>
+  <si>
+    <t>c49bj5</t>
+  </si>
+  <si>
+    <t>pe48fr5</t>
+  </si>
+  <si>
+    <t>東區大智國小</t>
+  </si>
+  <si>
+    <t>何薰沂</t>
+  </si>
+  <si>
+    <t>鄒建沂</t>
+  </si>
+  <si>
+    <t>鄭昌和</t>
+  </si>
+  <si>
+    <t>dx68fr6</t>
+  </si>
+  <si>
+    <t>gw97f4</t>
+  </si>
+  <si>
+    <t>許子嫺</t>
+  </si>
+  <si>
+    <t>廖心晨</t>
+  </si>
+  <si>
+    <t>rs5sm9</t>
+  </si>
+  <si>
+    <t>bj58t1</t>
   </si>
   <si>
     <t>南屯區大新國小</t>
   </si>
   <si>
-    <t>陳珮慈</t>
-  </si>
-  <si>
-    <t>巫宣諭</t>
+    <t>蔡潔恩</t>
+  </si>
+  <si>
+    <t>黃詩倩</t>
   </si>
   <si>
     <t>巫裕雄</t>
   </si>
   <si>
-    <t>pe73nc5</t>
-  </si>
-  <si>
-    <t>nc84cd6</t>
-  </si>
-  <si>
-    <t>張喬欣</t>
-  </si>
-  <si>
-    <t>顏心妮</t>
-  </si>
-  <si>
-    <t>bj79g1</t>
-  </si>
-  <si>
-    <t>h82hp5</t>
-  </si>
-  <si>
-    <t>南屯區文山國小</t>
-  </si>
-  <si>
-    <t>張蕙淇</t>
-  </si>
-  <si>
-    <t>嚴天虹</t>
-  </si>
-  <si>
-    <t>柯晁富</t>
-  </si>
-  <si>
-    <t>s43p9</t>
-  </si>
-  <si>
-    <t>kfr33n2</t>
+    <t>bj13pe2</t>
+  </si>
+  <si>
+    <t>c74a3</t>
+  </si>
+  <si>
+    <t>南屯區大墩國小</t>
+  </si>
+  <si>
+    <t>賴妍聿</t>
+  </si>
+  <si>
+    <t>劉珈伃</t>
+  </si>
+  <si>
+    <t>賴明珠</t>
+  </si>
+  <si>
+    <t>xb62xb5</t>
+  </si>
+  <si>
+    <t>my58g3</t>
+  </si>
+  <si>
+    <t>南屯區南屯國小</t>
+  </si>
+  <si>
+    <t>林靜仙</t>
+  </si>
+  <si>
+    <t>陳子喬</t>
+  </si>
+  <si>
+    <t>楊詠雯</t>
+  </si>
+  <si>
+    <t>cd87my3</t>
+  </si>
+  <si>
+    <t>etv91v5</t>
   </si>
   <si>
     <t>南屯區惠文國小</t>
   </si>
   <si>
-    <t>姚劭琦</t>
+    <t>賴敦彥</t>
+  </si>
+  <si>
+    <t>林楷棨</t>
+  </si>
+  <si>
+    <t>林義喆</t>
+  </si>
+  <si>
+    <t>gw61g5</t>
+  </si>
+  <si>
+    <t>etv65my2</t>
   </si>
   <si>
     <t>張鈺欣</t>
   </si>
   <si>
-    <t>林義喆</t>
-  </si>
-  <si>
-    <t>fr33fr8</t>
-  </si>
-  <si>
-    <t>dx86g8</t>
-  </si>
-  <si>
-    <t>南屯區黎明國小</t>
-  </si>
-  <si>
-    <t>梁晨</t>
-  </si>
-  <si>
-    <t>陳美柔</t>
-  </si>
-  <si>
-    <t>張志詳</t>
-  </si>
-  <si>
-    <t>nc80k5</t>
-  </si>
-  <si>
-    <t>ncd92w2</t>
+    <t>gwh88jk4</t>
+  </si>
+  <si>
+    <t>jkf42cd5</t>
+  </si>
+  <si>
+    <t>南屯區鎮平國小</t>
+  </si>
+  <si>
+    <t>梁宸熏</t>
+  </si>
+  <si>
+    <t>黃秀惠</t>
+  </si>
+  <si>
+    <t>xb39j2</t>
+  </si>
+  <si>
+    <t>fr37rs8</t>
+  </si>
+  <si>
+    <t>南區和平國小</t>
+  </si>
+  <si>
+    <t>廖晨妘</t>
+  </si>
+  <si>
+    <t>林佑珊</t>
+  </si>
+  <si>
+    <t>陳孟愉</t>
+  </si>
+  <si>
+    <t>frs84rs7</t>
+  </si>
+  <si>
+    <t>myg33gw8</t>
+  </si>
+  <si>
+    <t>南區信義國小</t>
+  </si>
+  <si>
+    <t>張潤彥</t>
+  </si>
+  <si>
+    <t>廖革為</t>
+  </si>
+  <si>
+    <t>kfr84et5</t>
+  </si>
+  <si>
+    <t>bj17sm8</t>
   </si>
   <si>
     <t>南區樹義國小</t>
   </si>
   <si>
-    <t>汪姵緹</t>
-  </si>
-  <si>
-    <t>王沛喬</t>
+    <t>葉柏辰</t>
+  </si>
+  <si>
+    <t>蘇庭鈺</t>
   </si>
   <si>
     <t>胡世塏</t>
   </si>
   <si>
-    <t>dx4d1</t>
-  </si>
-  <si>
-    <t>kf76et2</t>
-  </si>
-  <si>
-    <t>蘇庭鈺</t>
-  </si>
-  <si>
-    <t>陳芊雅</t>
-  </si>
-  <si>
-    <t>hp47b7</t>
-  </si>
-  <si>
-    <t>d59et6</t>
+    <t>ncd74my8</t>
+  </si>
+  <si>
+    <t>fr35an7</t>
+  </si>
+  <si>
+    <t>陳喬郁</t>
+  </si>
+  <si>
+    <t>翁暐婷</t>
+  </si>
+  <si>
+    <t>h91x4</t>
+  </si>
+  <si>
+    <t>g88y8</t>
   </si>
   <si>
     <t>烏日區九德國小</t>
   </si>
   <si>
-    <t>簡潔</t>
-  </si>
-  <si>
-    <t>吳豈豪</t>
+    <t>黃云萱</t>
+  </si>
+  <si>
+    <t>張原暢</t>
   </si>
   <si>
     <t>張恬綺</t>
   </si>
   <si>
-    <t>ncd67nc2</t>
-  </si>
-  <si>
-    <t>sm85e8</t>
-  </si>
-  <si>
-    <t>法雨雯</t>
-  </si>
-  <si>
-    <t>王瑾筠</t>
-  </si>
-  <si>
-    <t>jk25yg4</t>
-  </si>
-  <si>
-    <t>fr90bj4</t>
-  </si>
-  <si>
-    <t>梧棲區梧棲國小</t>
-  </si>
-  <si>
-    <t>葉彥廷</t>
-  </si>
-  <si>
-    <t>葉伊同</t>
-  </si>
-  <si>
-    <t>smy7b3</t>
-  </si>
-  <si>
-    <t>gwh84cd4</t>
-  </si>
-  <si>
-    <t>潭子區潭子國小</t>
-  </si>
-  <si>
-    <t>林祐瑭</t>
-  </si>
-  <si>
-    <t>謝明發</t>
-  </si>
-  <si>
-    <t>hpe76a5</t>
-  </si>
-  <si>
-    <t>jk60cd3</t>
-  </si>
-  <si>
-    <t>陳亭蓁</t>
-  </si>
-  <si>
-    <t>劉芊毓</t>
-  </si>
-  <si>
-    <t>jk49k5</t>
-  </si>
-  <si>
-    <t>et34d6</t>
+    <t>pe30tv1</t>
+  </si>
+  <si>
+    <t>m35n9</t>
+  </si>
+  <si>
+    <t>游恩琪</t>
+  </si>
+  <si>
+    <t>陳宥勝</t>
+  </si>
+  <si>
+    <t>jkf5kf6</t>
+  </si>
+  <si>
+    <t>p28d4</t>
+  </si>
+  <si>
+    <t>神岡區社口國小</t>
+  </si>
+  <si>
+    <t>葉于萱</t>
+  </si>
+  <si>
+    <t>游妙涵</t>
+  </si>
+  <si>
+    <t>徐大智</t>
+  </si>
+  <si>
+    <t>bjk53c7</t>
+  </si>
+  <si>
+    <t>k79e5</t>
+  </si>
+  <si>
+    <t>梧棲區中正國小</t>
+  </si>
+  <si>
+    <t>顏志丞</t>
+  </si>
+  <si>
+    <t>趙建硯</t>
+  </si>
+  <si>
+    <t>p64m5</t>
+  </si>
+  <si>
+    <t>nc46xb6</t>
+  </si>
+  <si>
+    <t>清水區建國國小</t>
+  </si>
+  <si>
+    <t>楊景喬</t>
+  </si>
+  <si>
+    <t>楊舜仁</t>
+  </si>
+  <si>
+    <t>kf20x8</t>
+  </si>
+  <si>
+    <t>ncd34cd9</t>
+  </si>
+  <si>
+    <t>潭子區東寶國小</t>
+  </si>
+  <si>
+    <t>楊蕙慈</t>
+  </si>
+  <si>
+    <t>陳宥儒</t>
+  </si>
+  <si>
+    <t>張夙惠</t>
+  </si>
+  <si>
+    <t>my70f5</t>
+  </si>
+  <si>
+    <t>f44x7</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1538,9 +1850,8 @@
     <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1681,22 +1992,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1707,22 +2018,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1733,22 +2044,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1759,12 +2070,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
         <v>52</v>
       </c>
@@ -1788,15 +2101,17 @@
       <c r="D10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1807,7 +2122,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>61</v>
@@ -1838,17 +2153,15 @@
       <c r="D12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1859,22 +2172,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1885,7 +2198,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>78</v>
@@ -1894,13 +2207,13 @@
         <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1911,7 +2224,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>83</v>
@@ -1920,13 +2233,13 @@
         <v>84</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1937,22 +2250,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1963,22 +2276,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1989,22 +2302,20 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2015,22 +2326,20 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2041,22 +2350,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2067,22 +2376,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="G21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2093,22 +2402,22 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2119,22 +2428,20 @@
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2145,22 +2452,20 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2171,22 +2476,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2200,19 +2505,19 @@
         <v>138</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>141</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2223,22 +2528,22 @@
         <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2249,22 +2554,22 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2275,20 +2580,22 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2299,20 +2606,22 @@
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2323,22 +2632,530 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="8" t="s">
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>171</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
